--- a/public/templates/template-pm-request.xlsx
+++ b/public/templates/template-pm-request.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604F05F2-9C2C-42F5-B795-B7A4903D42FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AB329F-6627-4CD2-BA85-916BF956A06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{206DC4D3-AD0A-4DF7-B945-16D682D170FD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Project:</t>
   </si>
@@ -86,13 +86,17 @@
   </si>
   <si>
     <t>kg</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-13809]dddd\,\ dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
@@ -145,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,6 +167,11 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55677A52-26E2-48EC-AB6E-279B4639D49C}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,9 +501,10 @@
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -524,8 +534,11 @@
       <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -547,8 +560,11 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -570,8 +586,11 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="9">
+        <v>78600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -593,8 +612,11 @@
       <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="9">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -616,8 +638,11 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="9">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -625,8 +650,9 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -634,8 +660,9 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -643,8 +670,9 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -652,8 +680,9 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -661,8 +690,9 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -670,8 +700,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -679,8 +710,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -688,8 +720,9 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -697,8 +730,9 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -706,8 +740,9 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -715,8 +750,9 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -724,8 +760,9 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -733,8 +770,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -742,8 +780,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -751,8 +790,9 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -760,8 +800,9 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -769,8 +810,9 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -778,8 +820,9 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -787,8 +830,9 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -796,8 +840,9 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -805,8 +850,9 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -814,8 +860,9 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -823,8 +870,9 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -832,8 +880,9 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -841,8 +890,9 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -850,8 +900,9 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -859,8 +910,9 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -868,8 +920,9 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -877,8 +930,9 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -886,8 +940,9 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
       <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -895,8 +950,9 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -904,8 +960,9 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
       <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -913,8 +970,9 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -922,8 +980,9 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
       <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -931,8 +990,9 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
       <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -940,8 +1000,9 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
       <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -949,8 +1010,9 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4"/>
       <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -958,8 +1020,9 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -967,8 +1030,9 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -976,8 +1040,9 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -985,8 +1050,9 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -994,8 +1060,9 @@
       <c r="E49" s="3"/>
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1003,6 +1070,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
+      <c r="H50" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
